--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\Grabber\2019\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\SuiteCRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{7FF00AE6-87C2-44F2-B8B1-3C81ADF05461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF10B10B-331E-4ED8-BA82-3904940A2873}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF48E519-4C32-473C-9405-D735F5DB013A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$6:$D$26</definedName>
-    <definedName name="Field_Type">Tabelle1!$Y$29:$Y$39,Tabelle1!$Y$6:$Y$23,Tabelle1!$Y$26,Tabelle1!$U$6:$U$26,Tabelle1!$U$29:$U$39,Tabelle1!$Q$29:$Q$39,Tabelle1!$Q$6:$Q$26,Tabelle1!$M$6:$M$26,Tabelle1!$M$29:$M$39,Tabelle1!$I$29:$I$39,Tabelle1!$I$6:$I$26</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$D$27</definedName>
+    <definedName name="Field_Type">Tabelle1!$AC$30:$AC$40,Tabelle1!$AC$7:$AC$24,Tabelle1!$AC$27,Tabelle1!$Y$7:$Y$27,Tabelle1!$Y$30:$Y$40,Tabelle1!$Q$30:$Q$40,Tabelle1!$Q$7:$Q$27,Tabelle1!$M$7:$M$27,Tabelle1!$M$30:$M$40,Tabelle1!$I$30:$I$40,Tabelle1!$I$7:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="82">
   <si>
     <t>snapADDY</t>
   </si>
@@ -64,21 +64,9 @@
     <t>Salutation</t>
   </si>
   <si>
-    <t>custom 1</t>
-  </si>
-  <si>
-    <t>custom1__c</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>custom 2</t>
-  </si>
-  <si>
-    <t>custom2__c</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -139,18 +127,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>"snapADDY"</t>
-  </si>
-  <si>
-    <t>exportType</t>
-  </si>
-  <si>
-    <t>exportType__c</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -181,6 +157,39 @@
     <t>Time of creation</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF9DA600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Template-Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFE6C36"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Enter name of master-template here]</t>
+    </r>
+  </si>
+  <si>
     <t>this is a note</t>
   </si>
   <si>
@@ -196,6 +205,9 @@
     <t>SuiteCRM: Account</t>
   </si>
   <si>
+    <t>SuiteCRM: Custom Entity (optional)</t>
+  </si>
+  <si>
     <t>salutation</t>
   </si>
   <si>
@@ -244,18 +256,12 @@
     <t>status</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Postal Code</t>
   </si>
   <si>
     <t>Office Phone</t>
   </si>
   <si>
-    <t>Email Adress</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -298,26 +304,20 @@
     <t>account_type</t>
   </si>
   <si>
-    <t>Export-Type</t>
-  </si>
-  <si>
-    <t>lookup</t>
-  </si>
-  <si>
     <t>picklist</t>
   </si>
   <si>
-    <t>Suite: Custom Entity (optional)</t>
-  </si>
-  <si>
-    <t>Suite: Custom Entity</t>
+    <t>SuiteCRM: Custom Entity</t>
+  </si>
+  <si>
+    <t>SuiteCRM: Prospect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,9 +334,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -395,6 +409,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,20 +431,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDC6254"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEB2AC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="62">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -441,21 +455,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right/>
       <top style="thick">
         <color rgb="FF9DA600"/>
@@ -480,6 +479,51 @@
     </border>
     <border>
       <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
@@ -548,6 +592,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -557,6 +612,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -611,6 +677,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,7 +702,44 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
@@ -785,6 +899,43 @@
       </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,19 +961,6 @@
       <left style="thick">
         <color rgb="FFFE6C36"/>
       </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
       <right/>
       <top style="thick">
         <color rgb="FFFE6C36"/>
@@ -1013,14 +1151,123 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1035,7 +1282,7 @@
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1047,10 +1294,10 @@
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </right>
       <top style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1059,145 +1306,42 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
       <right style="thick">
-        <color rgb="FFDC6254"/>
+        <color rgb="FF9DA600"/>
       </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFDC6254"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color rgb="FFFE6C36"/>
+      </left>
       <right style="thick">
-        <color rgb="FFDC6254"/>
+        <color rgb="FFFE6C36"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFDC6254"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFDC6254"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFDC6254"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FFDC6254"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFDC6254"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFDC6254"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFDC6254"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFDC6254"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFDC6254"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFDC6254"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFDC6254"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFDC6254"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFDC6254"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFDC6254"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFDC6254"/>
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,180 +1349,308 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1535,12 +1807,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFEEB2AC"/>
-      <color rgb="FFDC6254"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1558,13 +1824,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1636,13 +1902,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2003,13 +2269,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2024,1307 +2290,1569 @@
     <col min="15" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1"/>
-    <col min="23" max="25" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.7109375" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="29" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="O4" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="S4" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+      <c r="AA4" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+    </row>
+    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="68"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="68"/>
+    </row>
+    <row r="8" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="G8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+      <c r="S8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="W8" s="67"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="68"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="68"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="G9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="S9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" s="67"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="68"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="66"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+      <c r="S10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W10" s="67"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="68"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="66"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="S11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" s="67"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="68"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="66"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="G12" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="21"/>
+      <c r="O12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W12" s="67"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="68"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="66"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="G13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="67"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="68"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="66"/>
+    </row>
+    <row r="14" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="G14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" s="67"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="68"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="68"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="G15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="W15" s="67"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="68"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="66"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="G16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W16" s="67"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="68"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="66"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W17" s="67"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="68"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="66"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="G18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W18" s="67"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="68"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="66"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="G19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+      <c r="S19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W19" s="67"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="68"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="66"/>
+    </row>
+    <row r="20" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="G20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="U20" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="W20" s="67"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="68"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="68"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="G21" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="S21" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W21" s="67"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="68"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="66"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="G22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W22" s="67"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="68"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="68"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="G23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="21"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="68"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="68"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="G24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>49</v>
       </c>
+      <c r="I24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="21"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="68"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="68"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="O25" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S25" s="19"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="21"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="68"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="68"/>
     </row>
-    <row r="3" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="G3" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="O3" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="S3" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="T3" s="83"/>
-      <c r="U3" s="84"/>
-      <c r="W3" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="84"/>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="O26" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S26" s="19"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="21"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="68"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="68"/>
     </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="55"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="71"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="71"/>
+    </row>
+    <row r="28" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="K28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="O28" s="56"/>
+      <c r="Q28" s="57"/>
+      <c r="S28" s="56"/>
+      <c r="U28" s="57"/>
+      <c r="W28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="AA28" s="56"/>
+      <c r="AC28" s="57"/>
+    </row>
+    <row r="29" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="85" t="s">
+      <c r="S29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="86" t="s">
+      <c r="T29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="87" t="s">
+      <c r="U29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="85" t="s">
+      <c r="W29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="86" t="s">
+      <c r="X29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="87" t="s">
+      <c r="Y29" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="AA29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC29" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="70"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="70"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="70"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="70"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="70"/>
+    <row r="30" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="60"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="34"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="34"/>
     </row>
-    <row r="7" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="G7" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="71"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="72"/>
-      <c r="S7" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="72"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="72"/>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="62"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="34"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="34"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="G8" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="73"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="74"/>
-      <c r="S8" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="U8" s="74"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="74"/>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="62"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="34"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="34"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="34"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="34"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="G9" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="73"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="74"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="74"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="74"/>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="62"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="34"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="34"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="34"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="G10" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="73"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="74"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="74"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="74"/>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="62"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="34"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="34"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="34"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="34"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="G11" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="70"/>
-      <c r="O11" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="73"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="74"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="74"/>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="62"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="34"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="34"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="34"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="G12" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="S12" s="73"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="74"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="74"/>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="62"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="34"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="34"/>
     </row>
-    <row r="13" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="G13" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="75"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="76"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="76"/>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="62"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="34"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="34"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="34"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="34"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="34"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="G14" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="73"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="74"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="74"/>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="62"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="34"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="34"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="34"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="34"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="34"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="G15" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="73"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="74"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="74"/>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="61"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="62"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="34"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="34"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="34"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="34"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="34"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="G16" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="73"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="74"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="74"/>
+    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="63"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="64"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="55"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="55"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="55"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="55"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="55"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="G17" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="73"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="74"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="74"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="G18" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" s="73"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="74"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="74"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="74"/>
-    </row>
-    <row r="19" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="G19" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" s="75"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="76"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="76"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="G20" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O20" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="S20" s="73"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="74"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="74"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="G21" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="S21" s="69"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="70"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="70"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="G22" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="69"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="70"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="70"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="70"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="70"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="G23" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="69"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="70"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="70"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="70"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="70"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="70"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="70"/>
-      <c r="O24" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="S24" s="69"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="70"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="70"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="70"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="70"/>
-      <c r="O25" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q25" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="S25" s="69"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="70"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="70"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="81"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="81"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="81"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="81"/>
-    </row>
-    <row r="27" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="K27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="O27" s="43"/>
-      <c r="Q27" s="44"/>
-      <c r="S27" s="43"/>
-      <c r="U27" s="44"/>
-      <c r="W27" s="43"/>
-      <c r="Y27" s="44"/>
-    </row>
-    <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="L28" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="O28" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="P28" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="S28" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="T28" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="U28" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="W28" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="X28" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y28" s="87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="48"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="74"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="74"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="74"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="74"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="74"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="50"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="74"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="74"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="74"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="74"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="74"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="50"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="74"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="74"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="74"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="74"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="74"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="50"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="74"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="74"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="74"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="74"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="74"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="73"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="74"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="74"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="74"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="74"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="50"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="74"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="74"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="74"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="74"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="74"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="50"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="74"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="74"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="74"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="74"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="74"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="50"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="74"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="74"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="74"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="74"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="74"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="50"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="74"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="74"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="74"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="74"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="74"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="50"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="74"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="74"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="74"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="74"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="74"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="55"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="81"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="81"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="81"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="81"/>
-      <c r="W39" s="79"/>
-      <c r="X39" s="80"/>
-      <c r="Y39" s="81"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A6:X26" name="Contact Fields"/>
-    <protectedRange sqref="A29:Y39" name="Questionnaire"/>
+    <protectedRange sqref="V7:AB27 J7:K27 A7:G27 N7:S27" name="Contact Fields"/>
+    <protectedRange sqref="A30:AC40" name="Questionnaire"/>
+    <protectedRange sqref="H7:I27 T7:U27" name="Contact Fields_1"/>
+    <protectedRange sqref="L7:M27" name="Contact Fields_2"/>
   </protectedRanges>
-  <mergeCells count="15">
-    <mergeCell ref="B36:D36"/>
+  <mergeCells count="17">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A26:AG27 B7:AG25">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A28:R28 A27:G27 W8:AK28 J8:K27 B8:G26 N8:R27">
+    <cfRule type="expression" dxfId="25" priority="95">
+      <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="24" priority="96">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29:Y39">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="AA30:AC40">
+    <cfRule type="expression" dxfId="23" priority="93">
+      <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="22" priority="94">
+      <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S29:U39">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="W30:Y40">
+    <cfRule type="expression" dxfId="21" priority="91">
+      <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="20" priority="92">
+      <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O29:Q39">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="O30:Q40">
+    <cfRule type="expression" dxfId="19" priority="89">
+      <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="90">
+      <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:M39">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="K30:M40">
+    <cfRule type="expression" dxfId="17" priority="87">
+      <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="88">
+      <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:I39">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="G30:I40">
+    <cfRule type="expression" dxfId="15" priority="85">
+      <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="14" priority="86">
+      <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A25">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A8:A26">
+    <cfRule type="expression" dxfId="13" priority="83">
+      <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="84">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I27">
+    <cfRule type="expression" dxfId="11" priority="77">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="78">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28:V28 S8:S12 V8:V27 S14:S27">
+    <cfRule type="expression" dxfId="9" priority="75">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="76">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30:U40">
+    <cfRule type="expression" dxfId="7" priority="73">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="74">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:U27">
+    <cfRule type="expression" dxfId="5" priority="71">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="72">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
+    <cfRule type="expression" dxfId="3" priority="69">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="70">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:M27">
+    <cfRule type="expression" dxfId="1" priority="67">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="68">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29:Y39 Y6:Y26 U6:U26 U29:U39 Q29:Q39 M6:M26 I6:I26 M29:M39 I29:I39 Q6:Q26" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC30:AC40 Y7:Y27 AC7:AC27 Y30:Y40 Q30:Q40 Q7:Q27 U7:U27 M30:M40 I30:I40 I7:I27 U30:U40 M7:M27" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\SuiteCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF48E519-4C32-473C-9405-D735F5DB013A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37887725-7C51-413C-8C7F-EEB33D4C8EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{023CCBE6-E452-4CD5-84F7-195809A7D7FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{E22B6F71-5DE4-4B9C-9727-D20FCC0F2EBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="82">
   <si>
@@ -205,9 +243,6 @@
     <t>SuiteCRM: Account</t>
   </si>
   <si>
-    <t>SuiteCRM: Custom Entity (optional)</t>
-  </si>
-  <si>
     <t>salutation</t>
   </si>
   <si>
@@ -307,17 +342,20 @@
     <t>picklist</t>
   </si>
   <si>
-    <t>SuiteCRM: Custom Entity</t>
-  </si>
-  <si>
     <t>SuiteCRM: Prospect</t>
+  </si>
+  <si>
+    <t>SuiteCRM: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SuiteCRM: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +430,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1475,6 +1520,18 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1501,18 +1558,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2268,11 +2313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2327,38 +2372,38 @@
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="O4" s="86" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="O4" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="S4" s="86" t="s">
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="S4" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="80"/>
+      <c r="AA4" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="AA4" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="80"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2465,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33"/>
@@ -2486,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W8" s="67"/>
       <c r="X8" s="20"/>
@@ -2510,19 +2555,19 @@
         <v>9</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="33"/>
@@ -2531,10 +2576,10 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W9" s="67"/>
       <c r="X9" s="20"/>
@@ -2555,19 +2600,19 @@
         <v>10</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="33"/>
@@ -2576,10 +2621,10 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W10" s="67"/>
       <c r="X10" s="20"/>
@@ -2600,19 +2645,19 @@
         <v>11</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="33"/>
@@ -2621,10 +2666,10 @@
         <v>11</v>
       </c>
       <c r="T11" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W11" s="67"/>
       <c r="X11" s="20"/>
@@ -2645,10 +2690,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="33"/>
@@ -2657,19 +2702,19 @@
         <v>14</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S12" s="32" t="s">
         <v>13</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W12" s="67"/>
       <c r="X12" s="20"/>
@@ -2690,37 +2735,37 @@
         <v>15</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W13" s="67"/>
       <c r="X13" s="20"/>
@@ -2741,37 +2786,37 @@
         <v>16</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O14" s="39" t="s">
         <v>16</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S14" s="39" t="s">
         <v>16</v>
       </c>
       <c r="T14" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W14" s="67"/>
       <c r="X14" s="20"/>
@@ -2792,37 +2837,37 @@
         <v>17</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W15" s="67"/>
       <c r="X15" s="20"/>
@@ -2840,40 +2885,40 @@
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="G16" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W16" s="67"/>
       <c r="X16" s="20"/>
@@ -2894,37 +2939,37 @@
         <v>18</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="T17" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U17" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W17" s="67"/>
       <c r="X17" s="20"/>
@@ -2942,40 +2987,40 @@
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="G18" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W18" s="67"/>
       <c r="X18" s="20"/>
@@ -2996,19 +3041,19 @@
         <v>20</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="33"/>
@@ -3017,10 +3062,10 @@
         <v>20</v>
       </c>
       <c r="T19" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W19" s="67"/>
       <c r="X19" s="20"/>
@@ -3041,37 +3086,37 @@
         <v>21</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>21</v>
       </c>
       <c r="P20" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S20" s="39" t="s">
         <v>21</v>
       </c>
       <c r="T20" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U20" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W20" s="67"/>
       <c r="X20" s="20"/>
@@ -3089,40 +3134,40 @@
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
       <c r="G21" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T21" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W21" s="67"/>
       <c r="X21" s="20"/>
@@ -3143,37 +3188,37 @@
         <v>23</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W22" s="67"/>
       <c r="X22" s="20"/>
@@ -3194,10 +3239,10 @@
         <v>25</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
@@ -3227,19 +3272,19 @@
         <v>26</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>26</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="20"/>
@@ -3256,7 +3301,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="45"/>
@@ -3269,13 +3314,13 @@
       <c r="L25" s="20"/>
       <c r="M25" s="21"/>
       <c r="O25" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="P25" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="Q25" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
@@ -3289,7 +3334,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="45"/>
@@ -3302,13 +3347,13 @@
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
       <c r="O26" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="P26" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="Q26" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S26" s="19"/>
       <c r="T26" s="20"/>
@@ -3430,11 +3475,11 @@
       <c r="A30" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
       <c r="E30" s="60"/>
       <c r="G30" s="32"/>
       <c r="H30" s="33"/>
@@ -3459,11 +3504,11 @@
       <c r="A31" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="62"/>
       <c r="G31" s="32"/>
       <c r="H31" s="33"/>
@@ -3488,11 +3533,11 @@
       <c r="A32" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="62"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33"/>
@@ -3517,11 +3562,11 @@
       <c r="A33" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="62"/>
       <c r="G33" s="32"/>
       <c r="H33" s="33"/>
@@ -3544,9 +3589,9 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="62"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33"/>
@@ -3569,9 +3614,9 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="62"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33"/>
@@ -3594,9 +3639,9 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="62"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33"/>
@@ -3619,9 +3664,9 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="61"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="62"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33"/>
@@ -3644,9 +3689,9 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="62"/>
       <c r="G38" s="32"/>
       <c r="H38" s="33"/>
@@ -3669,9 +3714,9 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="62"/>
       <c r="G39" s="32"/>
       <c r="H39" s="33"/>
@@ -3694,9 +3739,9 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="63"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="64"/>
       <c r="G40" s="53"/>
       <c r="H40" s="54"/>
@@ -3726,12 +3771,6 @@
     <protectedRange sqref="L7:M27" name="Contact Fields_2"/>
   </protectedRanges>
   <mergeCells count="17">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
@@ -3743,6 +3782,12 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:R28 A27:G27 W8:AK28 J8:K27 B8:G26 N8:R27">
     <cfRule type="expression" dxfId="25" priority="95">
@@ -3852,12 +3897,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC30:AC40 Y7:Y27 AC7:AC27 Y30:Y40 Q30:Q40 Q7:Q27 U7:U27 M30:M40 I30:I40 I7:I27 U30:U40 M7:M27" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I27 M7:M27 Q7:Q27 U7:U27 Y7:Y27 AC7:AC27 AC30:AC40 Y30:Y40 U30:U40 Q30:Q40 M30:M40 I30:I40" xr:uid="{98075191-91DF-4226-95ED-EFA94517FA49}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37887725-7C51-413C-8C7F-EEB33D4C8EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F688461F-7AFE-4C81-BD9A-DFD5B7733B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -195,39 +195,6 @@
     <t>Time of creation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Enter name of master-template here]</t>
-    </r>
-  </si>
-  <si>
     <t>this is a note</t>
   </si>
   <si>
@@ -349,13 +316,16 @@
   </si>
   <si>
     <t>SuiteCRM: Additional Entity</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,13 +352,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1398,14 +1361,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1421,13 +1384,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1435,24 +1398,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -1468,24 +1431,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -1495,15 +1458,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
@@ -1520,44 +1483,44 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2316,9 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2342,8 +2303,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
+      <c r="A1" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2352,7 +2313,7 @@
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2372,38 +2333,38 @@
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="77" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="O4" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="O4" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="S4" s="77" t="s">
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="S4" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="78" t="s">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+      <c r="AA4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="80"/>
-      <c r="AA4" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2501,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -2510,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33"/>
@@ -2531,10 +2492,10 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W8" s="67"/>
       <c r="X8" s="20"/>
@@ -2555,19 +2516,19 @@
         <v>9</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="33"/>
@@ -2576,10 +2537,10 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W9" s="67"/>
       <c r="X9" s="20"/>
@@ -2600,19 +2561,19 @@
         <v>10</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="33"/>
@@ -2621,10 +2582,10 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W10" s="67"/>
       <c r="X10" s="20"/>
@@ -2645,19 +2606,19 @@
         <v>11</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="33"/>
@@ -2666,10 +2627,10 @@
         <v>11</v>
       </c>
       <c r="T11" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W11" s="67"/>
       <c r="X11" s="20"/>
@@ -2690,10 +2651,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="33"/>
@@ -2702,19 +2663,19 @@
         <v>14</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S12" s="32" t="s">
         <v>13</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W12" s="67"/>
       <c r="X12" s="20"/>
@@ -2735,37 +2696,37 @@
         <v>15</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W13" s="67"/>
       <c r="X13" s="20"/>
@@ -2786,37 +2747,37 @@
         <v>16</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O14" s="39" t="s">
         <v>16</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S14" s="39" t="s">
         <v>16</v>
       </c>
       <c r="T14" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U14" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W14" s="67"/>
       <c r="X14" s="20"/>
@@ -2837,37 +2798,37 @@
         <v>17</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U15" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W15" s="67"/>
       <c r="X15" s="20"/>
@@ -2885,40 +2846,40 @@
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="G16" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W16" s="67"/>
       <c r="X16" s="20"/>
@@ -2939,37 +2900,37 @@
         <v>18</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="T17" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W17" s="67"/>
       <c r="X17" s="20"/>
@@ -2987,40 +2948,40 @@
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="G18" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W18" s="67"/>
       <c r="X18" s="20"/>
@@ -3041,19 +3002,19 @@
         <v>20</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="33"/>
@@ -3062,10 +3023,10 @@
         <v>20</v>
       </c>
       <c r="T19" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W19" s="67"/>
       <c r="X19" s="20"/>
@@ -3086,37 +3047,37 @@
         <v>21</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>21</v>
       </c>
       <c r="P20" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S20" s="39" t="s">
         <v>21</v>
       </c>
       <c r="T20" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U20" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W20" s="67"/>
       <c r="X20" s="20"/>
@@ -3134,40 +3095,40 @@
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
       <c r="G21" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T21" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W21" s="67"/>
       <c r="X21" s="20"/>
@@ -3188,37 +3149,37 @@
         <v>23</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W22" s="67"/>
       <c r="X22" s="20"/>
@@ -3239,10 +3200,10 @@
         <v>25</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
@@ -3272,19 +3233,19 @@
         <v>26</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>26</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="20"/>
@@ -3301,7 +3262,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="45"/>
@@ -3314,13 +3275,13 @@
       <c r="L25" s="20"/>
       <c r="M25" s="21"/>
       <c r="O25" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P25" s="20" t="s">
-        <v>75</v>
-      </c>
       <c r="Q25" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
@@ -3334,7 +3295,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="45"/>
@@ -3347,13 +3308,13 @@
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
       <c r="O26" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="P26" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="Q26" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S26" s="19"/>
       <c r="T26" s="20"/>
@@ -3475,11 +3436,11 @@
       <c r="A30" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="60"/>
       <c r="G30" s="32"/>
       <c r="H30" s="33"/>
@@ -3504,11 +3465,11 @@
       <c r="A31" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="62"/>
       <c r="G31" s="32"/>
       <c r="H31" s="33"/>
@@ -3533,11 +3494,11 @@
       <c r="A32" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="62"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33"/>
@@ -3562,11 +3523,11 @@
       <c r="A33" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="62"/>
       <c r="G33" s="32"/>
       <c r="H33" s="33"/>
@@ -3589,9 +3550,9 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="62"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33"/>
@@ -3614,9 +3575,9 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="62"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33"/>
@@ -3639,9 +3600,9 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="62"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33"/>
@@ -3664,9 +3625,9 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="61"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="62"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33"/>
@@ -3689,9 +3650,9 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="62"/>
       <c r="G38" s="32"/>
       <c r="H38" s="33"/>
@@ -3714,9 +3675,9 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="62"/>
       <c r="G39" s="32"/>
       <c r="H39" s="33"/>
@@ -3739,9 +3700,9 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="63"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="82"/>
       <c r="E40" s="64"/>
       <c r="G40" s="53"/>
       <c r="H40" s="54"/>
@@ -3771,6 +3732,12 @@
     <protectedRange sqref="L7:M27" name="Contact Fields_2"/>
   </protectedRanges>
   <mergeCells count="17">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
@@ -3782,12 +3749,6 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:R28 A27:G27 W8:AK28 J8:K27 B8:G26 N8:R27">
     <cfRule type="expression" dxfId="25" priority="95">

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\SuiteCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF48E519-4C32-473C-9405-D735F5DB013A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA5207-25FB-4B90-86C5-3901E2710FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$27</definedName>
-    <definedName name="Field_Type">Tabelle1!$AC$30:$AC$40,Tabelle1!$AC$7:$AC$24,Tabelle1!$AC$27,Tabelle1!$Y$7:$Y$27,Tabelle1!$Y$30:$Y$40,Tabelle1!$Q$30:$Q$40,Tabelle1!$Q$7:$Q$27,Tabelle1!$M$7:$M$27,Tabelle1!$M$30:$M$40,Tabelle1!$I$30:$I$40,Tabelle1!$I$7:$I$27</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$26</definedName>
+    <definedName name="Field_Type">Tabelle1!$AC$29:$AC$39,Tabelle1!$AC$6:$AC$23,Tabelle1!$AC$26,Tabelle1!$Y$6:$Y$26,Tabelle1!$Y$29:$Y$39,Tabelle1!$Q$29:$Q$39,Tabelle1!$Q$6:$Q$26,Tabelle1!$M$6:$M$26,Tabelle1!$M$29:$M$39,Tabelle1!$I$29:$I$39,Tabelle1!$I$6:$I$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
   <si>
     <t>snapADDY</t>
   </si>
@@ -155,39 +155,6 @@
   </si>
   <si>
     <t>Time of creation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Enter name of master-template here]</t>
-    </r>
   </si>
   <si>
     <t>this is a note</t>
@@ -317,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,23 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,18 +362,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,8 +372,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEB6758"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5B0A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="72">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -479,51 +432,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
@@ -592,17 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -612,22 +509,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FF9DA600"/>
       </right>
       <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -639,7 +555,7 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
       <top style="thin">
@@ -647,47 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,44 +577,7 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
@@ -899,43 +737,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,123 +952,57 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF9DA600"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF9DA600"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color rgb="FFFE6C36"/>
+      </left>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFFE6C36"/>
       </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color rgb="FFEB6758"/>
+      </left>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1282,7 +1017,7 @@
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1294,10 +1029,10 @@
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1306,42 +1041,301 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF5B0A9"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFF5B0A9"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF5B0A9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF5B0A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF5B0A9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF5B0A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF5B0A9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF5B0A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF5B0A9"/>
       </left>
       <right/>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF5B0A9"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
+        <color rgb="FFF5B0A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFF5B0A9"/>
       </right>
       <top style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFF5B0A9"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFF5B0A9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FFEB6758"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,18 +1343,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1371,149 +1364,153 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1807,6 +1804,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEB6758"/>
+      <color rgb="FFF5B0A9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1824,13 +1827,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1902,13 +1905,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2269,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2296,1564 +2299,1555 @@
     <col min="27" max="29" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="O3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="S3" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="88"/>
+      <c r="AA3" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="88"/>
+    </row>
+    <row r="4" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="66"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="66"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="66"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="66"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="85"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="85"/>
+    </row>
+    <row r="7" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="67"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="68"/>
+      <c r="S7" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" s="84"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="85"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="85"/>
     </row>
-    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:29" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="O4" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="S4" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="AA4" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-    </row>
-    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="68"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="68"/>
-    </row>
-    <row r="8" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="33" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="33" t="s">
+      <c r="I8" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-      <c r="S8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="T8" s="33" t="s">
+      <c r="M8" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="67"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="68"/>
+      <c r="S8" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="W8" s="67"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="68"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="68"/>
+      <c r="U8" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" s="84"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="85"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="80"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="S9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="W9" s="67"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="68"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="66"/>
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="67"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="68"/>
+      <c r="S9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="84"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="85"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="80"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="33" t="s">
+      <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="33" t="s">
+      <c r="I10" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-      <c r="S10" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="33" t="s">
+      <c r="M10" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="67"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="68"/>
+      <c r="S10" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="W10" s="67"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="68"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="66"/>
+      <c r="U10" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="84"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="85"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="80"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="G11" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="33" t="s">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="67"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="66"/>
+      <c r="O11" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="33" t="s">
+      <c r="Q11" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="S11" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="W11" s="67"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="68"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="66"/>
+      <c r="U11" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="84"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="85"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="80"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="G12" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="33" t="s">
+      <c r="A12" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="G12" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="21"/>
-      <c r="O12" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="33" t="s">
+      <c r="I12" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="Q12" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12" s="33" t="s">
+      <c r="Q12" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U12" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="W12" s="67"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="68"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="66"/>
+      <c r="U12" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="84"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="85"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="80"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="G13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="20" t="s">
+    <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="G13" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="Q13" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="T13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="W13" s="67"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="68"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="66"/>
+      <c r="Q13" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="84"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="85"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="85"/>
     </row>
-    <row r="14" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="G14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="20" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="G14" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="U14" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="W14" s="67"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="68"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="68"/>
+      <c r="Q14" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="W14" s="84"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="85"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="80"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="G15" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="20" t="s">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="W15" s="67"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="68"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="66"/>
+      <c r="Q15" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="84"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="85"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="80"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="G16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="20" t="s">
+      <c r="A16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="G16" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="S16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="T16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="U16" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="W16" s="67"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="68"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="66"/>
+      <c r="Q16" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" s="84"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="85"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="80"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="G17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="20" t="s">
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="G17" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="T17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="U17" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="W17" s="67"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="68"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="66"/>
+      <c r="Q17" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="U17" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="84"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="85"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="80"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="G18" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="33" t="s">
+      <c r="A18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="G18" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="33" t="s">
+      <c r="I18" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O18" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="33" t="s">
+      <c r="M18" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="67"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="68"/>
+      <c r="S18" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="W18" s="84"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="85"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="80"/>
+    </row>
+    <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="G19" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="S18" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="T18" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="W18" s="67"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="68"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="66"/>
+      <c r="Q19" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="W19" s="84"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="85"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="85"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="G19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-      <c r="S19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="U19" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="W19" s="67"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="68"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="66"/>
-    </row>
-    <row r="20" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="G20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="33" t="s">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="G20" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="33" t="s">
+      <c r="I20" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="41" t="s">
+      <c r="M20" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="Q20" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="S20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="T20" s="33" t="s">
+      <c r="P20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="U20" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="W20" s="67"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="68"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="68"/>
+      <c r="Q20" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="S20" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="U20" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20" s="84"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="85"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="80"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="G21" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="33" t="s">
+      <c r="A21" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="G21" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="33" t="s">
+      <c r="I21" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" s="33" t="s">
+      <c r="M21" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T21" s="33" t="s">
+      <c r="Q21" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="W21" s="67"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="68"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="66"/>
+      <c r="U21" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21" s="84"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="85"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="85"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="G22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="A22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="G22" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="U22" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="W22" s="67"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="68"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="68"/>
+      <c r="I22" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="65"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="66"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="66"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="66"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="85"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="85"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="G23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="21"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="68"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="68"/>
+      <c r="A23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="G23" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="65"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="66"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="66"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="85"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="85"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="G24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="21"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="21"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="68"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="68"/>
+      <c r="A24" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="66"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="66"/>
+      <c r="O24" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="S24" s="65"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="66"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="85"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="85"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="O25" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" s="20" t="s">
+      <c r="A25" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="S25" s="19"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="21"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="68"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="68"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="66"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="66"/>
+      <c r="O25" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="S25" s="65"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="66"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="85"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="85"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
-      <c r="O26" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="S26" s="19"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="21"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="68"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="68"/>
+    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="75"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="75"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="83"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="83"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="55"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="71"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="70"/>
-      <c r="AC27" s="71"/>
+    <row r="27" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="K27" s="41"/>
+      <c r="M27" s="42"/>
+      <c r="O27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="S27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="W27" s="41"/>
+      <c r="Y27" s="42"/>
+      <c r="AA27" s="41"/>
+      <c r="AC27" s="42"/>
     </row>
-    <row r="28" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="56"/>
-      <c r="I28" s="57"/>
-      <c r="K28" s="56"/>
-      <c r="M28" s="57"/>
-      <c r="O28" s="56"/>
-      <c r="Q28" s="57"/>
-      <c r="S28" s="56"/>
-      <c r="U28" s="57"/>
-      <c r="W28" s="56"/>
-      <c r="Y28" s="57"/>
-      <c r="AA28" s="56"/>
-      <c r="AC28" s="57"/>
+    <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="X28" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC28" s="78" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76" t="s">
-        <v>27</v>
+    <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC29" s="13" t="s">
-        <v>7</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="45"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="68"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="68"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="68"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="68"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="80"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="80"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="60"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="34"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="34"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="34"/>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="47"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="68"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="68"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="68"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="68"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="80"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="80"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="62"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="34"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="34"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="34"/>
+      <c r="A31" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="47"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="68"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="68"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="68"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="68"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="80"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="80"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="62"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="34"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="34"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="34"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="34"/>
+      <c r="A32" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="47"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="68"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="68"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="68"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="68"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="80"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="80"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="62"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="34"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="34"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="34"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="34"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="47"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="68"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="68"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="68"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="68"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="80"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="80"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="62"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="34"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="34"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="34"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="34"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="34"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="47"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="68"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="68"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="68"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="68"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="80"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="80"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="62"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="34"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="34"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="34"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="34"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="47"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="68"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="68"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="68"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="68"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="80"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="80"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="62"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="34"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="34"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="34"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="34"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="47"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="68"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="68"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="68"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="68"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="80"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="80"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="62"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="34"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="34"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="34"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="34"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="34"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="47"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="68"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="68"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="68"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="68"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="80"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="80"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="62"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="34"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="34"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="34"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="34"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="34"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="47"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="68"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="68"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="68"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="68"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="80"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="80"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="62"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="34"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="34"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="34"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="34"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="34"/>
+    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="48"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="49"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="75"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="75"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="75"/>
+      <c r="W39" s="81"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="83"/>
+      <c r="AA39" s="81"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="83"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="64"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="55"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="55"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="55"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="55"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="55"/>
-    </row>
-    <row r="41" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="V7:AB27 J7:K27 A7:G27 N7:S27" name="Contact Fields"/>
-    <protectedRange sqref="A30:AC40" name="Questionnaire"/>
-    <protectedRange sqref="H7:I27 T7:U27" name="Contact Fields_1"/>
-    <protectedRange sqref="L7:M27" name="Contact Fields_2"/>
+    <protectedRange sqref="V6:AB26 J6:K26 A6:G26 N6:S26" name="Contact Fields"/>
+    <protectedRange sqref="A29:AC39" name="Questionnaire"/>
+    <protectedRange sqref="H6:I26 T6:U26" name="Contact Fields_1"/>
+    <protectedRange sqref="L6:M26" name="Contact Fields_2"/>
   </protectedRanges>
   <mergeCells count="17">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="S3:U3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A28:R28 A27:G27 W8:AK28 J8:K27 B8:G26 N8:R27">
+  <conditionalFormatting sqref="A27:R27 A26:G26 W7:AK27 J7:K26 B7:G25 N7:R26">
     <cfRule type="expression" dxfId="25" priority="95">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="96">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA30:AC40">
+  <conditionalFormatting sqref="AA29:AC39">
     <cfRule type="expression" dxfId="23" priority="93">
-      <formula>$C30="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="94">
-      <formula>$D30="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30:Y40">
+  <conditionalFormatting sqref="W29:Y39">
     <cfRule type="expression" dxfId="21" priority="91">
-      <formula>$C30="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="92">
-      <formula>$D30="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O30:Q40">
+  <conditionalFormatting sqref="O29:Q39">
     <cfRule type="expression" dxfId="19" priority="89">
-      <formula>$C30="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="90">
-      <formula>$D30="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:M40">
+  <conditionalFormatting sqref="K29:M39">
     <cfRule type="expression" dxfId="17" priority="87">
-      <formula>$C30="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="88">
-      <formula>$D30="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:I40">
+  <conditionalFormatting sqref="G29:I39">
     <cfRule type="expression" dxfId="15" priority="85">
-      <formula>$C30="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="86">
-      <formula>$D30="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A26">
+  <conditionalFormatting sqref="A7:A25">
     <cfRule type="expression" dxfId="13" priority="83">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="84">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I27">
+  <conditionalFormatting sqref="H7:I26">
     <cfRule type="expression" dxfId="11" priority="77">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="78">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28:V28 S8:S12 V8:V27 S14:S27">
+  <conditionalFormatting sqref="S27:V27 S7:S11 V7:V26 S13:S26">
     <cfRule type="expression" dxfId="9" priority="75">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="76">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30:U40">
+  <conditionalFormatting sqref="S29:U39">
     <cfRule type="expression" dxfId="7" priority="73">
-      <formula>$C30="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="74">
-      <formula>$D30="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:U27">
+  <conditionalFormatting sqref="T7:U26">
     <cfRule type="expression" dxfId="5" priority="71">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="72">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
+  <conditionalFormatting sqref="S12">
     <cfRule type="expression" dxfId="3" priority="69">
-      <formula>$C13="x"</formula>
+      <formula>$C12="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="70">
-      <formula>$D13="x"</formula>
+      <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:M27">
+  <conditionalFormatting sqref="L7:M26">
     <cfRule type="expression" dxfId="1" priority="67">
-      <formula>$C8="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="68">
-      <formula>$D8="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC30:AC40 Y7:Y27 AC7:AC27 Y30:Y40 Q30:Q40 Q7:Q27 U7:U27 M30:M40 I30:I40 I7:I27 U30:U40 M7:M27" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC26 AC29:AC39 Y29:Y39 Y6:Y26 U6:U25 U29:U39 U26 Q29:Q39 Q6:Q26 M6:M26 M29:M39 I29:I39 I6:I26" xr:uid="{8233D7E4-140C-49BD-9914-F542C16E291B}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA5207-25FB-4B90-86C5-3901E2710FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0FE4C-F126-4101-BED4-3130950C4025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="Checkbox">Tabelle1!$C$6:$D$26</definedName>
-    <definedName name="Field_Type">Tabelle1!$AC$29:$AC$39,Tabelle1!$AC$6:$AC$23,Tabelle1!$AC$26,Tabelle1!$Y$6:$Y$26,Tabelle1!$Y$29:$Y$39,Tabelle1!$Q$29:$Q$39,Tabelle1!$Q$6:$Q$26,Tabelle1!$M$6:$M$26,Tabelle1!$M$29:$M$39,Tabelle1!$I$29:$I$39,Tabelle1!$I$6:$I$26</definedName>
+    <definedName name="Field_Type">Tabelle1!$AC$29:$AC$37,Tabelle1!$AC$6:$AC$23,Tabelle1!$AC$26,Tabelle1!$Y$6:$Y$26,Tabelle1!$Y$29:$Y$37,Tabelle1!$Q$29:$Q$37,Tabelle1!$Q$6:$Q$26,Tabelle1!$M$6:$M$26,Tabelle1!$M$29:$M$37,Tabelle1!$I$29:$I$37,Tabelle1!$I$6:$I$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
   <si>
     <t>snapADDY</t>
   </si>
@@ -136,30 +136,15 @@
     <t>Lead-Source</t>
   </si>
   <si>
-    <t>Campaign-ID</t>
-  </si>
-  <si>
-    <t>VR Title</t>
-  </si>
-  <si>
     <t>Created by</t>
   </si>
   <si>
     <t>Created on (Date)</t>
   </si>
   <si>
-    <t>Template-ID</t>
-  </si>
-  <si>
-    <t>Template title</t>
-  </si>
-  <si>
     <t>Time of creation</t>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>CRM System: SuiteCRM</t>
   </si>
   <si>
@@ -278,6 +263,9 @@
   </si>
   <si>
     <t>SuiteCRM: Prospect</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -385,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -763,69 +751,6 @@
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
@@ -1343,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1436,31 +1361,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1471,51 +1414,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -1590,8 +1502,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1634,118 +1546,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1912,7 +1714,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2272,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2301,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2321,102 +2123,104 @@
         <v>2</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="G3" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="O3" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="S3" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
+      <c r="K3" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="O3" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="S3" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="88"/>
-      <c r="AA3" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="88"/>
+      <c r="W3" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="81"/>
+      <c r="AA3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="81"/>
     </row>
     <row r="4" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="P5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="64" t="s">
+      <c r="Q5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="92" t="s">
+      <c r="T5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="90" t="s">
+      <c r="U5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="76" t="s">
+      <c r="W5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="77" t="s">
+      <c r="X5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="78" t="s">
+      <c r="Y5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="76" t="s">
+      <c r="AA5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="77" t="s">
+      <c r="AB5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="78" t="s">
+      <c r="AC5" s="66" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2426,71 +2230,69 @@
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="G6" s="65"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="66"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="54"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="66"/>
-      <c r="O6" s="65"/>
+      <c r="M6" s="54"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="66"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="66"/>
-      <c r="W6" s="84"/>
+      <c r="Q6" s="54"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="54"/>
+      <c r="W6" s="72"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="85"/>
-      <c r="AA6" s="84"/>
+      <c r="Y6" s="73"/>
+      <c r="AA6" s="72"/>
       <c r="AB6" s="15"/>
-      <c r="AC6" s="85"/>
+      <c r="AC6" s="73"/>
     </row>
     <row r="7" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="55" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="55" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="67"/>
+        <v>41</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="55"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="68"/>
-      <c r="S7" s="67" t="s">
+      <c r="Q7" s="56"/>
+      <c r="S7" s="55" t="s">
         <v>8</v>
       </c>
       <c r="T7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="U7" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="W7" s="84"/>
+        <v>41</v>
+      </c>
+      <c r="U7" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="W7" s="72"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="85"/>
-      <c r="AA7" s="84"/>
+      <c r="Y7" s="73"/>
+      <c r="AA7" s="72"/>
       <c r="AB7" s="15"/>
-      <c r="AC7" s="85"/>
+      <c r="AC7" s="73"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2500,42 +2302,42 @@
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="55" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="67"/>
+        <v>42</v>
+      </c>
+      <c r="M8" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="55"/>
       <c r="P8" s="26"/>
-      <c r="Q8" s="68"/>
-      <c r="S8" s="67" t="s">
+      <c r="Q8" s="56"/>
+      <c r="S8" s="55" t="s">
         <v>9</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="W8" s="84"/>
+        <v>42</v>
+      </c>
+      <c r="U8" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8" s="72"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="85"/>
-      <c r="AA8" s="79"/>
+      <c r="Y8" s="73"/>
+      <c r="AA8" s="67"/>
       <c r="AB8" s="26"/>
-      <c r="AC8" s="80"/>
+      <c r="AC8" s="68"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -2545,42 +2347,42 @@
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="55" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="67"/>
+        <v>44</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="55"/>
       <c r="P9" s="26"/>
-      <c r="Q9" s="68"/>
-      <c r="S9" s="67" t="s">
+      <c r="Q9" s="56"/>
+      <c r="S9" s="55" t="s">
         <v>10</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="W9" s="84"/>
+        <v>44</v>
+      </c>
+      <c r="U9" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="72"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="85"/>
-      <c r="AA9" s="79"/>
+      <c r="Y9" s="73"/>
+      <c r="AA9" s="67"/>
       <c r="AB9" s="26"/>
-      <c r="AC9" s="80"/>
+      <c r="AC9" s="68"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -2590,42 +2392,42 @@
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="55"/>
       <c r="P10" s="26"/>
-      <c r="Q10" s="68"/>
-      <c r="S10" s="67" t="s">
+      <c r="Q10" s="56"/>
+      <c r="S10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="W10" s="84"/>
+        <v>45</v>
+      </c>
+      <c r="U10" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10" s="72"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="85"/>
-      <c r="AA10" s="79"/>
+      <c r="Y10" s="73"/>
+      <c r="AA10" s="67"/>
       <c r="AB10" s="26"/>
-      <c r="AC10" s="80"/>
+      <c r="AC10" s="68"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -2635,42 +2437,42 @@
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="55" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="67"/>
+        <v>46</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="55"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="66"/>
-      <c r="O11" s="67" t="s">
+      <c r="M11" s="54"/>
+      <c r="O11" s="55" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="S11" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="55" t="s">
         <v>13</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="W11" s="84"/>
+        <v>46</v>
+      </c>
+      <c r="U11" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11" s="72"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="85"/>
-      <c r="AA11" s="79"/>
+      <c r="Y11" s="73"/>
+      <c r="AA11" s="67"/>
       <c r="AB11" s="26"/>
-      <c r="AC11" s="80"/>
+      <c r="AC11" s="68"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
@@ -2680,48 +2482,48 @@
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="53" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="53" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="53" t="s">
         <v>15</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="53" t="s">
         <v>15</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" s="84"/>
+        <v>47</v>
+      </c>
+      <c r="U12" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="W12" s="72"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="85"/>
-      <c r="AA12" s="79"/>
+      <c r="Y12" s="73"/>
+      <c r="AA12" s="67"/>
       <c r="AB12" s="26"/>
-      <c r="AC12" s="80"/>
+      <c r="AC12" s="68"/>
     </row>
     <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -2731,48 +2533,48 @@
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="57" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="57" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="57" t="s">
         <v>16</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="S13" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="57" t="s">
         <v>16</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="U13" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="W13" s="84"/>
+        <v>49</v>
+      </c>
+      <c r="U13" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="W13" s="72"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="85"/>
-      <c r="AA13" s="84"/>
+      <c r="Y13" s="73"/>
+      <c r="AA13" s="72"/>
       <c r="AB13" s="15"/>
-      <c r="AC13" s="85"/>
+      <c r="AC13" s="73"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
@@ -2782,48 +2584,48 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="59" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="59" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="59" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="59" t="s">
         <v>17</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="U14" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="W14" s="84"/>
+        <v>47</v>
+      </c>
+      <c r="U14" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="W14" s="72"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="85"/>
-      <c r="AA14" s="79"/>
+      <c r="Y14" s="73"/>
+      <c r="AA14" s="67"/>
       <c r="AB14" s="26"/>
-      <c r="AC14" s="80"/>
+      <c r="AC14" s="68"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -2833,48 +2635,48 @@
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
-      <c r="G15" s="67" t="s">
-        <v>62</v>
+      <c r="G15" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="S15" s="67" t="s">
-        <v>62</v>
+      <c r="Q15" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="T15" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U15" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" s="84"/>
+        <v>50</v>
+      </c>
+      <c r="U15" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" s="72"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="85"/>
-      <c r="AA15" s="79"/>
+      <c r="Y15" s="73"/>
+      <c r="AA15" s="67"/>
       <c r="AB15" s="26"/>
-      <c r="AC15" s="80"/>
+      <c r="AC15" s="68"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -2884,48 +2686,48 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="55" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="55" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="55" t="s">
         <v>18</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="55" t="s">
         <v>18</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="84"/>
+        <v>48</v>
+      </c>
+      <c r="U16" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="W16" s="72"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="85"/>
-      <c r="AA16" s="79"/>
+      <c r="Y16" s="73"/>
+      <c r="AA16" s="67"/>
       <c r="AB16" s="26"/>
-      <c r="AC16" s="80"/>
+      <c r="AC16" s="68"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -2935,48 +2737,48 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
-      <c r="G17" s="67" t="s">
-        <v>63</v>
+      <c r="G17" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="67" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="M17" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" s="67" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="M17" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q17" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="S17" s="67" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="Q17" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="U17" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="W17" s="84"/>
+        <v>51</v>
+      </c>
+      <c r="U17" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="W17" s="72"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="85"/>
-      <c r="AA17" s="79"/>
+      <c r="Y17" s="73"/>
+      <c r="AA17" s="67"/>
       <c r="AB17" s="26"/>
-      <c r="AC17" s="80"/>
+      <c r="AC17" s="68"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -2986,42 +2788,42 @@
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="55" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="55" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18" s="67"/>
+        <v>52</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="55"/>
       <c r="P18" s="26"/>
-      <c r="Q18" s="68"/>
-      <c r="S18" s="67" t="s">
+      <c r="Q18" s="56"/>
+      <c r="S18" s="55" t="s">
         <v>20</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="84"/>
+        <v>52</v>
+      </c>
+      <c r="U18" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="W18" s="72"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="85"/>
-      <c r="AA18" s="79"/>
+      <c r="Y18" s="73"/>
+      <c r="AA18" s="67"/>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="80"/>
+      <c r="AC18" s="68"/>
     </row>
     <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
@@ -3031,48 +2833,48 @@
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="57" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="57" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O19" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="57" t="s">
         <v>21</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="S19" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="57" t="s">
         <v>21</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="U19" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="W19" s="84"/>
+        <v>53</v>
+      </c>
+      <c r="U19" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="W19" s="72"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="85"/>
-      <c r="AA19" s="84"/>
+      <c r="Y19" s="73"/>
+      <c r="AA19" s="72"/>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="85"/>
+      <c r="AC19" s="73"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -3082,48 +2884,48 @@
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
-      <c r="G20" s="67" t="s">
-        <v>73</v>
+      <c r="G20" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="67" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O20" s="67" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="M20" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="S20" s="67" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="Q20" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="S20" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="U20" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="W20" s="84"/>
+        <v>54</v>
+      </c>
+      <c r="U20" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="W20" s="72"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="85"/>
-      <c r="AA20" s="79"/>
+      <c r="Y20" s="73"/>
+      <c r="AA20" s="67"/>
       <c r="AB20" s="26"/>
-      <c r="AC20" s="80"/>
+      <c r="AC20" s="68"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
@@ -3133,48 +2935,48 @@
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="53" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="53" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="53" t="s">
         <v>23</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="53" t="s">
         <v>23</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U21" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="W21" s="84"/>
+        <v>55</v>
+      </c>
+      <c r="U21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="W21" s="72"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="85"/>
-      <c r="AA21" s="84"/>
+      <c r="Y21" s="73"/>
+      <c r="AA21" s="72"/>
       <c r="AB21" s="15"/>
-      <c r="AC21" s="85"/>
+      <c r="AC21" s="73"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -3184,30 +2986,30 @@
       <c r="C22" s="23"/>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="53" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="53"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="66"/>
-      <c r="O22" s="65"/>
+      <c r="M22" s="54"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="66"/>
-      <c r="S22" s="65"/>
+      <c r="Q22" s="54"/>
+      <c r="S22" s="53"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="66"/>
-      <c r="W22" s="84"/>
+      <c r="U22" s="54"/>
+      <c r="W22" s="72"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="85"/>
-      <c r="AA22" s="84"/>
+      <c r="Y22" s="73"/>
+      <c r="AA22" s="72"/>
       <c r="AB22" s="15"/>
-      <c r="AC22" s="85"/>
+      <c r="AC22" s="73"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
@@ -3217,102 +3019,102 @@
       <c r="C23" s="33"/>
       <c r="D23" s="34"/>
       <c r="E23" s="35"/>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="53" t="s">
         <v>26</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="65"/>
+        <v>43</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="53"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="66"/>
-      <c r="S23" s="65"/>
+      <c r="Q23" s="54"/>
+      <c r="S23" s="53"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="66"/>
-      <c r="W23" s="84"/>
+      <c r="U23" s="54"/>
+      <c r="W23" s="72"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="85"/>
-      <c r="AA23" s="84"/>
+      <c r="Y23" s="73"/>
+      <c r="AA23" s="72"/>
       <c r="AB23" s="15"/>
-      <c r="AC23" s="85"/>
+      <c r="AC23" s="73"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="33"/>
       <c r="D24" s="34"/>
       <c r="E24" s="35"/>
-      <c r="G24" s="65"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="66"/>
-      <c r="K24" s="65"/>
+      <c r="I24" s="54"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="66"/>
-      <c r="O24" s="65" t="s">
-        <v>74</v>
+      <c r="M24" s="54"/>
+      <c r="O24" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="S24" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="Q24" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="53"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="66"/>
-      <c r="W24" s="84"/>
+      <c r="U24" s="54"/>
+      <c r="W24" s="72"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="85"/>
-      <c r="AA24" s="84"/>
+      <c r="Y24" s="73"/>
+      <c r="AA24" s="72"/>
       <c r="AB24" s="15"/>
-      <c r="AC24" s="85"/>
+      <c r="AC24" s="73"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="33"/>
       <c r="D25" s="34"/>
       <c r="E25" s="35"/>
-      <c r="G25" s="65"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="66"/>
-      <c r="K25" s="65"/>
+      <c r="I25" s="54"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="66"/>
-      <c r="O25" s="65" t="s">
-        <v>76</v>
+      <c r="M25" s="54"/>
+      <c r="O25" s="53" t="s">
+        <v>71</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q25" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="S25" s="65"/>
+        <v>72</v>
+      </c>
+      <c r="Q25" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="53"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="66"/>
-      <c r="W25" s="84"/>
+      <c r="U25" s="54"/>
+      <c r="W25" s="72"/>
       <c r="X25" s="15"/>
-      <c r="Y25" s="85"/>
-      <c r="AA25" s="84"/>
+      <c r="Y25" s="73"/>
+      <c r="AA25" s="72"/>
       <c r="AB25" s="15"/>
-      <c r="AC25" s="85"/>
+      <c r="AC25" s="73"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
@@ -3320,24 +3122,24 @@
       <c r="C26" s="38"/>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="75"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="75"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="83"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="83"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="63"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="63"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="63"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="63"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="71"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="71"/>
     </row>
     <row r="27" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G27" s="41"/>
@@ -3354,7 +3156,7 @@
       <c r="AC27" s="42"/>
     </row>
     <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="49" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="43" t="s">
@@ -3365,372 +3167,312 @@
       <c r="E28" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="I28" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="63" t="s">
+      <c r="L28" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="64" t="s">
+      <c r="M28" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="62" t="s">
+      <c r="O28" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="63" t="s">
+      <c r="P28" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Q28" s="64" t="s">
+      <c r="Q28" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="S28" s="62" t="s">
+      <c r="S28" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="T28" s="63" t="s">
+      <c r="T28" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="U28" s="64" t="s">
+      <c r="U28" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="W28" s="76" t="s">
+      <c r="W28" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="X28" s="77" t="s">
+      <c r="X28" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Y28" s="78" t="s">
+      <c r="Y28" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AA28" s="76" t="s">
+      <c r="AA28" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AB28" s="77" t="s">
+      <c r="AB28" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC28" s="78" t="s">
+      <c r="AC28" s="66" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
+        <v>34</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="45"/>
-      <c r="G29" s="67"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="68"/>
-      <c r="K29" s="67"/>
+      <c r="I29" s="56"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="68"/>
-      <c r="O29" s="67"/>
+      <c r="M29" s="56"/>
+      <c r="O29" s="55"/>
       <c r="P29" s="26"/>
-      <c r="Q29" s="68"/>
-      <c r="S29" s="67"/>
+      <c r="Q29" s="56"/>
+      <c r="S29" s="55"/>
       <c r="T29" s="26"/>
-      <c r="U29" s="68"/>
-      <c r="W29" s="79"/>
+      <c r="U29" s="56"/>
+      <c r="W29" s="67"/>
       <c r="X29" s="26"/>
-      <c r="Y29" s="80"/>
-      <c r="AA29" s="79"/>
+      <c r="Y29" s="68"/>
+      <c r="AA29" s="67"/>
       <c r="AB29" s="26"/>
-      <c r="AC29" s="80"/>
+      <c r="AC29" s="68"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="47"/>
-      <c r="G30" s="67"/>
+      <c r="A30" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="45"/>
+      <c r="G30" s="55"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="68"/>
-      <c r="K30" s="67"/>
+      <c r="I30" s="56"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="68"/>
-      <c r="O30" s="67"/>
+      <c r="M30" s="56"/>
+      <c r="O30" s="55"/>
       <c r="P30" s="26"/>
-      <c r="Q30" s="68"/>
-      <c r="S30" s="67"/>
+      <c r="Q30" s="56"/>
+      <c r="S30" s="55"/>
       <c r="T30" s="26"/>
-      <c r="U30" s="68"/>
-      <c r="W30" s="79"/>
+      <c r="U30" s="56"/>
+      <c r="W30" s="67"/>
       <c r="X30" s="26"/>
-      <c r="Y30" s="80"/>
-      <c r="AA30" s="79"/>
+      <c r="Y30" s="68"/>
+      <c r="AA30" s="67"/>
       <c r="AB30" s="26"/>
-      <c r="AC30" s="80"/>
+      <c r="AC30" s="68"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="47"/>
-      <c r="G31" s="67"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="45"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="68"/>
-      <c r="K31" s="67"/>
+      <c r="I31" s="56"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="26"/>
-      <c r="M31" s="68"/>
-      <c r="O31" s="67"/>
+      <c r="M31" s="56"/>
+      <c r="O31" s="55"/>
       <c r="P31" s="26"/>
-      <c r="Q31" s="68"/>
-      <c r="S31" s="67"/>
+      <c r="Q31" s="56"/>
+      <c r="S31" s="55"/>
       <c r="T31" s="26"/>
-      <c r="U31" s="68"/>
-      <c r="W31" s="79"/>
+      <c r="U31" s="56"/>
+      <c r="W31" s="67"/>
       <c r="X31" s="26"/>
-      <c r="Y31" s="80"/>
-      <c r="AA31" s="79"/>
+      <c r="Y31" s="68"/>
+      <c r="AA31" s="67"/>
       <c r="AB31" s="26"/>
-      <c r="AC31" s="80"/>
+      <c r="AC31" s="68"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="47"/>
-      <c r="G32" s="67"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="45"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="68"/>
-      <c r="K32" s="67"/>
+      <c r="I32" s="56"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="26"/>
-      <c r="M32" s="68"/>
-      <c r="O32" s="67"/>
+      <c r="M32" s="56"/>
+      <c r="O32" s="55"/>
       <c r="P32" s="26"/>
-      <c r="Q32" s="68"/>
-      <c r="S32" s="67"/>
+      <c r="Q32" s="56"/>
+      <c r="S32" s="55"/>
       <c r="T32" s="26"/>
-      <c r="U32" s="68"/>
-      <c r="W32" s="79"/>
+      <c r="U32" s="56"/>
+      <c r="W32" s="67"/>
       <c r="X32" s="26"/>
-      <c r="Y32" s="80"/>
-      <c r="AA32" s="79"/>
+      <c r="Y32" s="68"/>
+      <c r="AA32" s="67"/>
       <c r="AB32" s="26"/>
-      <c r="AC32" s="80"/>
+      <c r="AC32" s="68"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="47"/>
-      <c r="G33" s="67"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="45"/>
+      <c r="G33" s="55"/>
       <c r="H33" s="26"/>
-      <c r="I33" s="68"/>
-      <c r="K33" s="67"/>
+      <c r="I33" s="56"/>
+      <c r="K33" s="55"/>
       <c r="L33" s="26"/>
-      <c r="M33" s="68"/>
-      <c r="O33" s="67"/>
+      <c r="M33" s="56"/>
+      <c r="O33" s="55"/>
       <c r="P33" s="26"/>
-      <c r="Q33" s="68"/>
-      <c r="S33" s="67"/>
+      <c r="Q33" s="56"/>
+      <c r="S33" s="55"/>
       <c r="T33" s="26"/>
-      <c r="U33" s="68"/>
-      <c r="W33" s="79"/>
+      <c r="U33" s="56"/>
+      <c r="W33" s="67"/>
       <c r="X33" s="26"/>
-      <c r="Y33" s="80"/>
-      <c r="AA33" s="79"/>
+      <c r="Y33" s="68"/>
+      <c r="AA33" s="67"/>
       <c r="AB33" s="26"/>
-      <c r="AC33" s="80"/>
+      <c r="AC33" s="68"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="47"/>
-      <c r="G34" s="67"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="45"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="26"/>
-      <c r="I34" s="68"/>
-      <c r="K34" s="67"/>
+      <c r="I34" s="56"/>
+      <c r="K34" s="55"/>
       <c r="L34" s="26"/>
-      <c r="M34" s="68"/>
-      <c r="O34" s="67"/>
+      <c r="M34" s="56"/>
+      <c r="O34" s="55"/>
       <c r="P34" s="26"/>
-      <c r="Q34" s="68"/>
-      <c r="S34" s="67"/>
+      <c r="Q34" s="56"/>
+      <c r="S34" s="55"/>
       <c r="T34" s="26"/>
-      <c r="U34" s="68"/>
-      <c r="W34" s="79"/>
+      <c r="U34" s="56"/>
+      <c r="W34" s="67"/>
       <c r="X34" s="26"/>
-      <c r="Y34" s="80"/>
-      <c r="AA34" s="79"/>
+      <c r="Y34" s="68"/>
+      <c r="AA34" s="67"/>
       <c r="AB34" s="26"/>
-      <c r="AC34" s="80"/>
+      <c r="AC34" s="68"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="47"/>
-      <c r="G35" s="67"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="45"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="26"/>
-      <c r="I35" s="68"/>
-      <c r="K35" s="67"/>
+      <c r="I35" s="56"/>
+      <c r="K35" s="55"/>
       <c r="L35" s="26"/>
-      <c r="M35" s="68"/>
-      <c r="O35" s="67"/>
+      <c r="M35" s="56"/>
+      <c r="O35" s="55"/>
       <c r="P35" s="26"/>
-      <c r="Q35" s="68"/>
-      <c r="S35" s="67"/>
+      <c r="Q35" s="56"/>
+      <c r="S35" s="55"/>
       <c r="T35" s="26"/>
-      <c r="U35" s="68"/>
-      <c r="W35" s="79"/>
+      <c r="U35" s="56"/>
+      <c r="W35" s="67"/>
       <c r="X35" s="26"/>
-      <c r="Y35" s="80"/>
-      <c r="AA35" s="79"/>
+      <c r="Y35" s="68"/>
+      <c r="AA35" s="67"/>
       <c r="AB35" s="26"/>
-      <c r="AC35" s="80"/>
+      <c r="AC35" s="68"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="47"/>
-      <c r="G36" s="67"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="45"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="26"/>
-      <c r="I36" s="68"/>
-      <c r="K36" s="67"/>
+      <c r="I36" s="56"/>
+      <c r="K36" s="55"/>
       <c r="L36" s="26"/>
-      <c r="M36" s="68"/>
-      <c r="O36" s="67"/>
+      <c r="M36" s="56"/>
+      <c r="O36" s="55"/>
       <c r="P36" s="26"/>
-      <c r="Q36" s="68"/>
-      <c r="S36" s="67"/>
+      <c r="Q36" s="56"/>
+      <c r="S36" s="55"/>
       <c r="T36" s="26"/>
-      <c r="U36" s="68"/>
-      <c r="W36" s="79"/>
+      <c r="U36" s="56"/>
+      <c r="W36" s="67"/>
       <c r="X36" s="26"/>
-      <c r="Y36" s="80"/>
-      <c r="AA36" s="79"/>
+      <c r="Y36" s="68"/>
+      <c r="AA36" s="67"/>
       <c r="AB36" s="26"/>
-      <c r="AC36" s="80"/>
+      <c r="AC36" s="68"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="46"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87"/>
       <c r="E37" s="47"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="68"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="68"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="68"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="68"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="80"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="80"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="63"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="63"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="63"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="63"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="71"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="71"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="47"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="68"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="68"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="68"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="68"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="80"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="80"/>
-    </row>
-    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="49"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="75"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="75"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="74"/>
-      <c r="U39" s="75"/>
-      <c r="W39" s="81"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="83"/>
-      <c r="AA39" s="81"/>
-      <c r="AB39" s="82"/>
-      <c r="AC39" s="83"/>
-    </row>
-    <row r="40" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="V6:AB26 J6:K26 A6:G26 N6:S26" name="Contact Fields"/>
-    <protectedRange sqref="A29:AC39" name="Questionnaire"/>
+    <protectedRange sqref="A29:AC37" name="Questionnaire"/>
     <protectedRange sqref="H6:I26 T6:U26" name="Contact Fields_1"/>
     <protectedRange sqref="L6:M26" name="Contact Fields_2"/>
   </protectedRanges>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
@@ -3739,83 +3481,43 @@
     <mergeCell ref="S3:U3"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:R27 A26:G26 W7:AK27 J7:K26 B7:G25 N7:R26">
-    <cfRule type="expression" dxfId="25" priority="95">
+    <cfRule type="expression" dxfId="15" priority="95">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="96">
+    <cfRule type="expression" dxfId="14" priority="96">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA29:AC39">
-    <cfRule type="expression" dxfId="23" priority="93">
+  <conditionalFormatting sqref="AA29:AC37 W29:Y37 O29:Q37 K29:M37 G29:I37 S29:U37">
+    <cfRule type="expression" dxfId="13" priority="93">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="94">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W29:Y39">
-    <cfRule type="expression" dxfId="21" priority="91">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="92">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O29:Q39">
-    <cfRule type="expression" dxfId="19" priority="89">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="90">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:M39">
-    <cfRule type="expression" dxfId="17" priority="87">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="88">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:I39">
-    <cfRule type="expression" dxfId="15" priority="85">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="86">
+    <cfRule type="expression" dxfId="12" priority="94">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A25">
-    <cfRule type="expression" dxfId="13" priority="83">
+    <cfRule type="expression" dxfId="11" priority="83">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="84">
+    <cfRule type="expression" dxfId="10" priority="84">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:I26">
-    <cfRule type="expression" dxfId="11" priority="77">
+    <cfRule type="expression" dxfId="9" priority="77">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="78">
+    <cfRule type="expression" dxfId="8" priority="78">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:V27 S7:S11 V7:V26 S13:S26">
-    <cfRule type="expression" dxfId="9" priority="75">
+    <cfRule type="expression" dxfId="7" priority="75">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="76">
+    <cfRule type="expression" dxfId="6" priority="76">
       <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:U39">
-    <cfRule type="expression" dxfId="7" priority="73">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="74">
-      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U26">
@@ -3846,7 +3548,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC26 AC29:AC39 Y29:Y39 Y6:Y26 U6:U25 U29:U39 U26 Q29:Q39 Q6:Q26 M6:M26 M29:M39 I29:I39 I6:I26" xr:uid="{8233D7E4-140C-49BD-9914-F542C16E291B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC26 Y6:Y26 U6:U26 Q6:Q26 M6:M26 I6:I26 AC29:AC37 Y29:Y37 U29:U37 Q29:Q37 M29:M37 I29:I37" xr:uid="{8233D7E4-140C-49BD-9914-F542C16E291B}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
